--- a/mode5_config.xlsx
+++ b/mode5_config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayhan_mu\Memo\Memolyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E779F9-BD25-4E0A-9A9E-9A07B61DD4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CCD182-3856-4D30-B887-04015E2E315E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3800BBBB-FAC4-46DF-B177-D86CD8781AC8}"/>
   </bookViews>
@@ -36,16 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>expected memory</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>apsw</t>
   </si>
@@ -56,22 +47,25 @@
     <t>Adc.c</t>
   </si>
   <si>
-    <t>dsram2</t>
-  </si>
-  <si>
     <t>adc_analogInput.c</t>
   </si>
   <si>
-    <t>dsram3</t>
-  </si>
-  <si>
-    <t>dsram1, dsram2</t>
-  </si>
-  <si>
-    <t>1. processed files daki tüm dosyaları dön size larını kontrol et doğru mu</t>
-  </si>
-  <si>
-    <t>dsram1 mesela</t>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>Expected Memory</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>mpe:dsram1, mpe:dsram2</t>
+  </si>
+  <si>
+    <t>mpe:dsram2</t>
+  </si>
+  <si>
+    <t>mpe:dsram3, mpe:pfls1</t>
   </si>
 </sst>
 </file>
@@ -423,71 +417,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313954C5-B139-4B45-B3A1-B41FE773458D}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>